--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha2.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H2">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N2">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q2">
-        <v>2.192972381997667</v>
+        <v>5.749970228628666</v>
       </c>
       <c r="R2">
-        <v>19.736751437979</v>
+        <v>51.74973205765799</v>
       </c>
       <c r="S2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="T2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H3">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>3.413406</v>
       </c>
       <c r="O3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q3">
-        <v>0.2494134044793333</v>
+        <v>0.422025553226</v>
       </c>
       <c r="R3">
-        <v>2.244720640314</v>
+        <v>3.798229979034</v>
       </c>
       <c r="S3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="T3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H4">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N4">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q4">
-        <v>1.859357221552</v>
+        <v>3.281916363005333</v>
       </c>
       <c r="R4">
-        <v>16.734214993968</v>
+        <v>29.537247267048</v>
       </c>
       <c r="S4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="T4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H5">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N5">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q5">
-        <v>0.1218794520211111</v>
+        <v>0.137882827707</v>
       </c>
       <c r="R5">
-        <v>1.09691506819</v>
+        <v>1.240945449363</v>
       </c>
       <c r="S5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="T5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
     </row>
   </sheetData>
